--- a/tut05/output/0501EE12.xlsx
+++ b/tut05/output/0501EE12.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C6" t="n">
-        <v>7.522727272727272</v>
+        <v>7.52</v>
       </c>
       <c r="D6" t="n">
-        <v>7.086956521739131</v>
+        <v>7.09</v>
       </c>
       <c r="E6" t="n">
-        <v>7.282608695652174</v>
+        <v>7.28</v>
       </c>
       <c r="F6" t="n">
-        <v>6.692307692307693</v>
+        <v>6.69</v>
       </c>
       <c r="G6" t="n">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="H6" t="n">
-        <v>7.813953488372093</v>
+        <v>7.81</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105263157894737</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.354838709677419</v>
+        <v>7.35</v>
       </c>
       <c r="D8" t="n">
-        <v>7.266187050359712</v>
+        <v>7.27</v>
       </c>
       <c r="E8" t="n">
-        <v>7.27027027027027</v>
+        <v>7.27</v>
       </c>
       <c r="F8" t="n">
-        <v>7.169642857142857</v>
+        <v>7.17</v>
       </c>
       <c r="G8" t="n">
-        <v>7.125</v>
+        <v>7.12</v>
       </c>
       <c r="H8" t="n">
-        <v>7.221498371335505</v>
+        <v>7.22</v>
       </c>
       <c r="I8" t="n">
-        <v>7.098550724637681</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
